--- a/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.30/reference.xlsx
+++ b/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.30/reference.xlsx
@@ -5,20 +5,21 @@
   <sheets>
     <sheet name="Package info" sheetId="1" r:id="rId1"/>
     <sheet name="constants" sheetId="2" r:id="rId2"/>
-    <sheet name="categoryOptionGroupSets" sheetId="3" r:id="rId3"/>
-    <sheet name="categoryOptionGroups" sheetId="4" r:id="rId4"/>
-    <sheet name="categoryOptionGroupsBySet" sheetId="5" r:id="rId5"/>
-    <sheet name="indicatorGroups" sheetId="6" r:id="rId6"/>
-    <sheet name="indicators" sheetId="7" r:id="rId7"/>
-    <sheet name="indicatorTypes" sheetId="8" r:id="rId8"/>
-    <sheet name="dashboards" sheetId="9" r:id="rId9"/>
-    <sheet name="dashboardItems" sheetId="10" r:id="rId10"/>
-    <sheet name="charts" sheetId="11" r:id="rId11"/>
-    <sheet name="reportTables" sheetId="12" r:id="rId12"/>
-    <sheet name="maps" sheetId="13" r:id="rId13"/>
-    <sheet name="mapViews" sheetId="14" r:id="rId14"/>
-    <sheet name="userGroups" sheetId="15" r:id="rId15"/>
-    <sheet name="users" sheetId="16" r:id="rId16"/>
+    <sheet name="categoryOptionCombos" sheetId="3" r:id="rId3"/>
+    <sheet name="categoryOptionGroupSets" sheetId="4" r:id="rId4"/>
+    <sheet name="categoryOptionGroups" sheetId="5" r:id="rId5"/>
+    <sheet name="categoryOptionGroupsBySet" sheetId="6" r:id="rId6"/>
+    <sheet name="indicatorGroups" sheetId="7" r:id="rId7"/>
+    <sheet name="indicators" sheetId="8" r:id="rId8"/>
+    <sheet name="indicatorTypes" sheetId="9" r:id="rId9"/>
+    <sheet name="dashboards" sheetId="10" r:id="rId10"/>
+    <sheet name="dashboardItems" sheetId="11" r:id="rId11"/>
+    <sheet name="charts" sheetId="12" r:id="rId12"/>
+    <sheet name="reportTables" sheetId="13" r:id="rId13"/>
+    <sheet name="maps" sheetId="14" r:id="rId14"/>
+    <sheet name="mapViews" sheetId="15" r:id="rId15"/>
+    <sheet name="userGroups" sheetId="16" r:id="rId16"/>
+    <sheet name="users" sheetId="17" r:id="rId17"/>
   </sheets>
 </workbook>
 </file>
@@ -482,7 +483,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-04-23T07:49</v>
+        <v>2021-04-26T16:17</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +491,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVIDVAC_DASHBOARD_V1.2_DHIS2.30_2021-04-23T07:49</v>
+        <v>COVIDVAC_DASHBOARD_V1.2_DHIS2.30_2021-04-26T16:17</v>
       </c>
     </row>
   </sheetData>
@@ -498,6 +499,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>XAXoJuC3hvM</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -1116,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1151,7 +1190,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>b8LigNTkhyG</v>
@@ -1165,7 +1204,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>B8tGSpVDYQR</v>
@@ -1179,7 +1218,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>CtbcfPoFCzo</v>
@@ -1193,7 +1232,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>GYWAYluTnMj</v>
@@ -1207,7 +1246,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>H6lrQsOB7jA</v>
@@ -1221,7 +1260,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>hYDuLUBIdFj</v>
@@ -1235,7 +1274,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>KPQ6KeOZ9FX</v>
@@ -1249,7 +1288,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>KvXobGKUeNc</v>
@@ -1263,7 +1302,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>LWFnERgFj0F</v>
@@ -1277,7 +1316,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>ogY1C56Eiv9</v>
@@ -1291,7 +1330,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>ouSGdU9G46U</v>
@@ -1305,7 +1344,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>PccWzAGw3o5</v>
@@ -1319,7 +1358,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>r5oYja8d5jn</v>
@@ -1333,7 +1372,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D15" s="5" t="str">
         <v>TyijkItvgE3</v>
@@ -1347,7 +1386,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D16" s="4" t="str">
         <v>udHdm4Jtn7J</v>
@@ -1361,7 +1400,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D17" s="5" t="str">
         <v>wnbjrEvjqBs</v>
@@ -1371,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1406,7 +1445,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>D5EBdc7LDs6</v>
@@ -1420,7 +1459,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>ETiRgi3EXoS</v>
@@ -1434,7 +1473,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-04-21</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>FK69uGdqyM1</v>
@@ -1448,7 +1487,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>hDix6ZMOB6p</v>
@@ -1462,7 +1501,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>K8F47kVnr77</v>
@@ -1476,7 +1515,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>MMEOBsXR6eE</v>
@@ -1490,7 +1529,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>NawHnMC4uVV</v>
@@ -1504,7 +1543,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>Q5AgE0cv3ou</v>
@@ -1518,7 +1557,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>TxHl78weq1n</v>
@@ -1532,7 +1571,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>YJDjqXkd0AF</v>
@@ -1542,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1577,7 +1616,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>mrhHfqYbv6m</v>
@@ -1591,7 +1630,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>nHhLZz3W50E</v>
@@ -1601,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1688,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1716,7 +1755,7 @@
         <v>COVAC admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-04-13</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>e2QMDWpq88P</v>
@@ -1727,7 +1766,7 @@
         <v>COVAC access</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-04-08</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>OeiDCnG3Pv2</v>
@@ -1737,7 +1776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1810,7 +1849,7 @@
         <v>Doses in a vial(Sinopharm/Coronavac)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-04-17</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>cbRA6ZJJsmk</v>
@@ -1824,7 +1863,7 @@
         <v>Doses in a vial(AstraZeneca/AZD12222)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-04-17</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Hazygnv9heS</v>
@@ -1838,7 +1877,7 @@
         <v>Doses in a vial(Moderna/mRNA-1273)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-04-17</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>hEv6rCckL0w</v>
@@ -1852,7 +1891,7 @@
         <v>Doses in a vial(Pfizer/Biontech/Comirnaty)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-04-17</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>re4npNEWcDF</v>
@@ -1866,7 +1905,7 @@
         <v>Doses in a vial(Gamaleya/Sputnik V)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>xxOEzzR2sVd</v>
@@ -1880,7 +1919,7 @@
         <v>Doses in a vial(Johnson&amp;Johnson)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-04-17</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>xZpzitIJ3aU</v>
@@ -1894,7 +1933,7 @@
         <v>Doses in a vial(AstraZeneca/AZ-SKBio)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-04-17</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>ylJ57nIwlYO</v>
@@ -1905,6 +1944,143 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>Open vial, Other reason</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>AnEOc7eqTPG</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>Closed vial, Color change (VVM)</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>EWaVKxhCw7E</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>Open vial, Color change (VVM)</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>iemSXBenfIl</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>Open vial, Contamination</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v>k3G5n6cjo1H</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="str">
+        <v>Closed vial, Partial use</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>MkryG3woLLJ</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
+        <v>Closed vial, Contamination</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>QVo1zpPICJN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Open vial, Partial use</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>RPzlBMTlOxz</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>Closed vial, Other reason</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v>utXnwFzJgiA</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>Closed vial, Expiry</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>x0WvdmAkQqF</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>Open vial, Expiry</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v>x1IX3hw1Xwl</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1932,7 +2108,7 @@
         <v>Adults</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-04-21</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>Ch4XLC5v1hp</v>
@@ -1954,7 +2130,7 @@
         <v>COVIDVAC Vaccines(A)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>eMy3gCydKhI</v>
@@ -1964,7 +2140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1999,7 +2175,7 @@
         <v>Pfizer/Biontech/Comirnaty(A)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>BDSqsQYVrhJ</v>
@@ -2013,7 +2189,7 @@
         <v>AstraZeneca/AZ-SKBio(A)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>bPLfrCI6Jbb</v>
@@ -2055,7 +2231,7 @@
         <v>Moderna/mRNA-1273(A)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>hcrDbPejaI6</v>
@@ -2069,7 +2245,7 @@
         <v>Adult</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-04-21</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>MyMzuzgT8IG</v>
@@ -2083,7 +2259,7 @@
         <v>Gamaleya/Sputnik V(A)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>OkZnA874cN1</v>
@@ -2097,7 +2273,7 @@
         <v>Johnson&amp;Johnson(A)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>TYz0ezPNNiz</v>
@@ -2111,7 +2287,7 @@
         <v>Older adult</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-04-21</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>u7WRRFCTdKU</v>
@@ -2125,7 +2301,7 @@
         <v>Sinopharm/Coronavac(A)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>vNV2D499eUM</v>
@@ -2139,7 +2315,7 @@
         <v>AstraZeneca/AZD12222(A)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>Z0LWdyopSII</v>
@@ -2149,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2260,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2295,7 +2471,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2305,7 +2481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J240"/>
   <sheetViews>
@@ -2382,7 +2558,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2414,7 +2590,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2446,7 +2622,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2478,7 +2654,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2510,7 +2686,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2542,7 +2718,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2574,7 +2750,7 @@
         <v>Percentage</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2606,7 +2782,7 @@
         <v>Percentage</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2638,7 +2814,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2670,7 +2846,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2702,7 +2878,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2734,7 +2910,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2766,7 +2942,7 @@
         <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2798,7 +2974,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J15" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2830,7 +3006,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2862,7 +3038,7 @@
         <v>Percentage</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2894,7 +3070,7 @@
         <v>Percentage</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2926,7 +3102,7 @@
         <v>Percentage</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2958,7 +3134,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J20" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -2990,7 +3166,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J21" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3022,7 +3198,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3054,7 +3230,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3086,7 +3262,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3118,7 +3294,7 @@
         <v>Percentage</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J25" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3150,7 +3326,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3182,7 +3358,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3214,7 +3390,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3246,7 +3422,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3278,7 +3454,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3310,7 +3486,7 @@
         <v>Percentage</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J31" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3342,7 +3518,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3374,7 +3550,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3406,7 +3582,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3438,7 +3614,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3470,7 +3646,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3502,7 +3678,7 @@
         <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3534,7 +3710,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3566,7 +3742,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3598,7 +3774,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3630,7 +3806,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3662,7 +3838,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3694,7 +3870,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J43" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3726,7 +3902,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3758,7 +3934,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3790,7 +3966,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3822,7 +3998,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3854,7 +4030,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3886,7 +4062,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3918,7 +4094,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3950,7 +4126,7 @@
         <v>Percentage</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3982,7 +4158,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4014,7 +4190,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4046,7 +4222,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4078,7 +4254,7 @@
         <v>Percentage</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J55" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4110,7 +4286,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4142,7 +4318,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J57" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4174,7 +4350,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4206,7 +4382,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4238,7 +4414,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4270,7 +4446,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4302,7 +4478,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4334,7 +4510,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4366,7 +4542,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4398,7 +4574,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4430,7 +4606,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4462,7 +4638,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4494,7 +4670,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4526,7 +4702,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4558,7 +4734,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4590,7 +4766,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4622,7 +4798,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4654,7 +4830,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4686,7 +4862,7 @@
         <v>Percentage</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4718,7 +4894,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4750,7 +4926,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4782,7 +4958,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4814,7 +4990,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4846,7 +5022,7 @@
         <v>Percentage</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4878,7 +5054,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4910,7 +5086,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4942,7 +5118,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4974,7 +5150,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5006,7 +5182,7 @@
         <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5038,7 +5214,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J85" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5070,7 +5246,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5102,7 +5278,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5134,7 +5310,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5166,7 +5342,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5198,7 +5374,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5230,7 +5406,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J91" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5262,7 +5438,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5294,7 +5470,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5326,7 +5502,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5358,7 +5534,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5390,7 +5566,7 @@
         <v>Percentage</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5422,7 +5598,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5454,7 +5630,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5486,7 +5662,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J99" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5518,7 +5694,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5550,7 +5726,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5582,7 +5758,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5614,7 +5790,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5646,7 +5822,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5678,7 +5854,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5710,7 +5886,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5742,7 +5918,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5774,7 +5950,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I108" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J108" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5806,7 +5982,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I109" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J109" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5838,7 +6014,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I110" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J110" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5870,7 +6046,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I111" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J111" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5902,7 +6078,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I112" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J112" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5934,7 +6110,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I113" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J113" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5966,7 +6142,7 @@
         <v>Percentage</v>
       </c>
       <c r="I114" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J114" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5998,7 +6174,7 @@
         <v>Percentage</v>
       </c>
       <c r="I115" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J115" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6030,7 +6206,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I116" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J116" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6062,7 +6238,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I117" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J117" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6094,7 +6270,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I118" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J118" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6126,7 +6302,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I119" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J119" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6158,7 +6334,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I120" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J120" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6190,7 +6366,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I121" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J121" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6222,7 +6398,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I122" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J122" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6254,7 +6430,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I123" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J123" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6286,7 +6462,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I124" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J124" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6318,7 +6494,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I125" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J125" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6350,7 +6526,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I126" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J126" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6382,7 +6558,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I127" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J127" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6414,7 +6590,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I128" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J128" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6446,7 +6622,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I129" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J129" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6478,7 +6654,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I130" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J130" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6510,7 +6686,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I131" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J131" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6542,7 +6718,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I132" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J132" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6574,7 +6750,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I133" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J133" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6606,7 +6782,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I134" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J134" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6638,7 +6814,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I135" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J135" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6670,7 +6846,7 @@
         <v>Percentage</v>
       </c>
       <c r="I136" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J136" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6702,7 +6878,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I137" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J137" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6734,7 +6910,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I138" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J138" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6766,7 +6942,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I139" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J139" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6798,7 +6974,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I140" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J140" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6830,7 +7006,7 @@
         <v>Percentage</v>
       </c>
       <c r="I141" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J141" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6862,7 +7038,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I142" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J142" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6894,7 +7070,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I143" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J143" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6926,7 +7102,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I144" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J144" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6958,7 +7134,7 @@
         <v>Percentage</v>
       </c>
       <c r="I145" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J145" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6990,7 +7166,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I146" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J146" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7022,7 +7198,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I147" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J147" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7054,7 +7230,7 @@
         <v>Percentage</v>
       </c>
       <c r="I148" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J148" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7086,7 +7262,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I149" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J149" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7118,7 +7294,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I150" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J150" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7150,7 +7326,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I151" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J151" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7182,7 +7358,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I152" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J152" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7214,7 +7390,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I153" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J153" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7246,7 +7422,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I154" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J154" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7278,7 +7454,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I155" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J155" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7310,7 +7486,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I156" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J156" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7342,7 +7518,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I157" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J157" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7374,7 +7550,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I158" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J158" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7406,7 +7582,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I159" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J159" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7438,7 +7614,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I160" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J160" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7470,7 +7646,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I161" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J161" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7502,7 +7678,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I162" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J162" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7534,7 +7710,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I163" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J163" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7566,7 +7742,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I164" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J164" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7598,7 +7774,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I165" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J165" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7630,7 +7806,7 @@
         <v>Percentage</v>
       </c>
       <c r="I166" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J166" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7662,7 +7838,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I167" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J167" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7694,7 +7870,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I168" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J168" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7726,7 +7902,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I169" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J169" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7758,7 +7934,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I170" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J170" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7790,7 +7966,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I171" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J171" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7822,7 +7998,7 @@
         <v>Percentage</v>
       </c>
       <c r="I172" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J172" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7854,7 +8030,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I173" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J173" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7886,7 +8062,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I174" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J174" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7918,7 +8094,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I175" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J175" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7950,7 +8126,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I176" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J176" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7982,7 +8158,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I177" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J177" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8014,7 +8190,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I178" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J178" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8046,7 +8222,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I179" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J179" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8078,7 +8254,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I180" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J180" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8110,7 +8286,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I181" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J181" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8142,7 +8318,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I182" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J182" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8174,7 +8350,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I183" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J183" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8206,7 +8382,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I184" s="4" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J184" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8238,7 +8414,7 @@
         <v>Percentage</v>
       </c>
       <c r="I185" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J185" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8270,7 +8446,7 @@
         <v>Percentage</v>
       </c>
       <c r="I186" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J186" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8302,7 +8478,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I187" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J187" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8334,7 +8510,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I188" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J188" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8366,7 +8542,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I189" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J189" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8398,7 +8574,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I190" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J190" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8430,7 +8606,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I191" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J191" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8462,7 +8638,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I192" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J192" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8494,7 +8670,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I193" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J193" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8526,7 +8702,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I194" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J194" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8558,7 +8734,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I195" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J195" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8590,7 +8766,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I196" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J196" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8622,7 +8798,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I197" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J197" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8654,7 +8830,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I198" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J198" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8686,7 +8862,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I199" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J199" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8718,7 +8894,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I200" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J200" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8750,7 +8926,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I201" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J201" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8782,7 +8958,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I202" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J202" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8814,7 +8990,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I203" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J203" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8846,7 +9022,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I204" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J204" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8878,7 +9054,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I205" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J205" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8910,7 +9086,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I206" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J206" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8942,7 +9118,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I207" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J207" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8974,7 +9150,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I208" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J208" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9006,7 +9182,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I209" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J209" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9038,7 +9214,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I210" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J210" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9070,7 +9246,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I211" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J211" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9102,7 +9278,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I212" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J212" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9134,7 +9310,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I213" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J213" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9166,7 +9342,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I214" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J214" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9198,7 +9374,7 @@
         <v>Percentage</v>
       </c>
       <c r="I215" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J215" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9230,7 +9406,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I216" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J216" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9262,7 +9438,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I217" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J217" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9294,7 +9470,7 @@
         <v>Percentage</v>
       </c>
       <c r="I218" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J218" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9326,7 +9502,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I219" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J219" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9358,7 +9534,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I220" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J220" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9390,7 +9566,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I221" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J221" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9422,7 +9598,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I222" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J222" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9454,7 +9630,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I223" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J223" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9486,7 +9662,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I224" s="4" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J224" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9518,7 +9694,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I225" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J225" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9550,7 +9726,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I226" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J226" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9582,7 +9758,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I227" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J227" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9614,7 +9790,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I228" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J228" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9646,7 +9822,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I229" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J229" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9678,7 +9854,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I230" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J230" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9710,7 +9886,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I231" s="5" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J231" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9742,7 +9918,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I232" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J232" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9774,7 +9950,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I233" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J233" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9806,7 +9982,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I234" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J234" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9838,7 +10014,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I235" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J235" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9870,7 +10046,7 @@
         <v>Percentage</v>
       </c>
       <c r="I236" s="4" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J236" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9902,7 +10078,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I237" s="5" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J237" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9934,7 +10110,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I238" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J238" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9966,7 +10142,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I239" s="5" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J239" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -9998,7 +10174,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I240" s="4" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-26</v>
       </c>
       <c r="J240" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -10008,7 +10184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10065,42 +10241,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-04-22</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>XAXoJuC3hvM</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>
--- a/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.30/reference.xlsx
+++ b/metadata/COVIDVAC/COVIDVAC_DASHBOARD_V1_DHIS2.30/reference.xlsx
@@ -5,21 +5,20 @@
   <sheets>
     <sheet name="Package info" sheetId="1" r:id="rId1"/>
     <sheet name="constants" sheetId="2" r:id="rId2"/>
-    <sheet name="categoryOptionCombos" sheetId="3" r:id="rId3"/>
-    <sheet name="categoryOptionGroupSets" sheetId="4" r:id="rId4"/>
-    <sheet name="categoryOptionGroups" sheetId="5" r:id="rId5"/>
-    <sheet name="categoryOptionGroupsBySet" sheetId="6" r:id="rId6"/>
-    <sheet name="indicatorGroups" sheetId="7" r:id="rId7"/>
-    <sheet name="indicators" sheetId="8" r:id="rId8"/>
-    <sheet name="indicatorTypes" sheetId="9" r:id="rId9"/>
-    <sheet name="dashboards" sheetId="10" r:id="rId10"/>
-    <sheet name="dashboardItems" sheetId="11" r:id="rId11"/>
-    <sheet name="charts" sheetId="12" r:id="rId12"/>
-    <sheet name="reportTables" sheetId="13" r:id="rId13"/>
-    <sheet name="maps" sheetId="14" r:id="rId14"/>
-    <sheet name="mapViews" sheetId="15" r:id="rId15"/>
-    <sheet name="userGroups" sheetId="16" r:id="rId16"/>
-    <sheet name="users" sheetId="17" r:id="rId17"/>
+    <sheet name="categoryOptionGroupSets" sheetId="3" r:id="rId3"/>
+    <sheet name="categoryOptionGroups" sheetId="4" r:id="rId4"/>
+    <sheet name="categoryOptionGroupsBySet" sheetId="5" r:id="rId5"/>
+    <sheet name="indicatorGroups" sheetId="6" r:id="rId6"/>
+    <sheet name="indicators" sheetId="7" r:id="rId7"/>
+    <sheet name="indicatorTypes" sheetId="8" r:id="rId8"/>
+    <sheet name="dashboards" sheetId="9" r:id="rId9"/>
+    <sheet name="dashboardItems" sheetId="10" r:id="rId10"/>
+    <sheet name="charts" sheetId="11" r:id="rId11"/>
+    <sheet name="reportTables" sheetId="12" r:id="rId12"/>
+    <sheet name="maps" sheetId="13" r:id="rId13"/>
+    <sheet name="mapViews" sheetId="14" r:id="rId14"/>
+    <sheet name="userGroups" sheetId="15" r:id="rId15"/>
+    <sheet name="users" sheetId="16" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
@@ -429,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,7 +466,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.2</v>
+        <v>1.2.1</v>
       </c>
     </row>
     <row r="5">
@@ -475,23 +474,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.30</v>
+        <v>2.30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-04-26T16:17</v>
+        <v>6af6fc0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVIDVAC_DASHBOARD_V1.2_DHIS2.30_2021-04-26T16:17</v>
+        <v>20210915T084638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>COVIDVAC_DASHBOARD_V1.2.1_2.30-en</v>
       </c>
     </row>
   </sheetData>
@@ -499,44 +506,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>XAXoJuC3hvM</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -1155,7 +1124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1410,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1581,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1640,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1727,14 +1696,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1752,23 +1721,34 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC admin</v>
+        <v>COVAC data capture</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-09-15</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>e2QMDWpq88P</v>
+        <v>AxmuDEHQApq</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>COVAC admin</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>e2QMDWpq88P</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>COVAC access</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C3" s="5" t="str">
+      <c r="B4" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
       </c>
     </row>
@@ -1776,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1945,143 +1925,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>Open vial, Other reason</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>AnEOc7eqTPG</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>Closed vial, Color change (VVM)</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>EWaVKxhCw7E</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>Open vial, Color change (VVM)</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>iemSXBenfIl</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Open vial, Contamination</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>k3G5n6cjo1H</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>Closed vial, Partial use</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>MkryG3woLLJ</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>Closed vial, Contamination</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>QVo1zpPICJN</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Open vial, Partial use</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>RPzlBMTlOxz</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Closed vial, Other reason</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v>utXnwFzJgiA</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>Closed vial, Expiry</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>x0WvdmAkQqF</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>Open vial, Expiry</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>x1IX3hw1Xwl</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
@@ -2140,7 +1983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2325,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2436,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2481,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J240"/>
   <sheetViews>
@@ -3067,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -3678,7 +3521,7 @@
         <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4958,7 +4801,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5182,7 +5025,7 @@
         <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6174,7 +6017,7 @@
         <v>Percentage</v>
       </c>
       <c r="I115" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J115" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6846,7 +6689,7 @@
         <v>Percentage</v>
       </c>
       <c r="I136" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J136" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8414,7 +8257,7 @@
         <v>Percentage</v>
       </c>
       <c r="I185" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J185" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8542,7 +8385,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I189" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J189" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -10184,7 +10027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10241,4 +10084,42 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVIDVAC - COVID-19 Vaccination Delivery</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>XAXoJuC3hvM</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>